--- a/restriction_digest/131015_DD_ApaI_SacI_pcr4pullThroug_1h.xlsx
+++ b/restriction_digest/131015_DD_ApaI_SacI_pcr4pullThroug_1h.xlsx
@@ -476,19 +476,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -509,11 +506,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,10 +850,10 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="29"/>
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -865,35 +865,35 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="29"/>
       <c r="C5">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
       <c r="H5">
         <v>10</v>
       </c>
@@ -902,21 +902,21 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="29"/>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6">
         <v>18</v>
       </c>
@@ -925,21 +925,21 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="29"/>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
       <c r="H7">
         <v>2</v>
       </c>
@@ -948,21 +948,21 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="29"/>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="H8">
         <v>1</v>
       </c>
@@ -971,10 +971,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="1">
         <f>SUM(C5:C8)</f>
         <v>20</v>
@@ -982,11 +982,11 @@
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="1">
         <f>SUM(H5:H8)</f>
         <v>31</v>
@@ -996,49 +996,49 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="29"/>
       <c r="C14">
         <v>24.5</v>
       </c>
@@ -1047,10 +1047,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="29"/>
       <c r="C15">
         <v>5</v>
       </c>
@@ -1059,10 +1059,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="29"/>
       <c r="C16">
         <v>20</v>
       </c>
@@ -1071,10 +1071,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="29"/>
       <c r="C17">
         <v>0.5</v>
       </c>
@@ -1083,10 +1083,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="1">
         <f>SUM(C14:C17)</f>
         <v>50</v>
@@ -1096,49 +1096,49 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="29"/>
       <c r="C22">
         <v>23.5</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22">
         <v>43.5</v>
       </c>
@@ -1147,21 +1147,21 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="29"/>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
       <c r="H23">
         <v>0</v>
       </c>
@@ -1170,21 +1170,21 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="29"/>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
       <c r="H24">
         <v>5</v>
       </c>
@@ -1193,21 +1193,21 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="29"/>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25">
         <v>1</v>
       </c>
@@ -1216,21 +1216,21 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="29"/>
       <c r="C26">
         <v>0.5</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
       <c r="H26">
         <v>0.5</v>
       </c>
@@ -1239,10 +1239,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="1">
         <f>SUM(C22:C26)</f>
         <v>50</v>
@@ -1250,11 +1250,11 @@
       <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="1">
         <f>SUM(H22:H26)</f>
         <v>50</v>
@@ -1264,17 +1264,17 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="E30" s="30" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="E30" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1383,11 +1383,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -1429,49 +1429,49 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
       <c r="C54">
         <v>77.000001000000012</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
       <c r="H54">
         <v>148.000001</v>
       </c>
@@ -1480,21 +1480,21 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
       <c r="C55">
         <v>20</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
       <c r="H55">
         <v>20</v>
       </c>
@@ -1503,21 +1503,21 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
       <c r="C56">
         <v>100</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
       <c r="H56">
         <v>1</v>
       </c>
@@ -1526,21 +1526,21 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
       <c r="H57">
         <v>8</v>
       </c>
@@ -1549,21 +1549,21 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="30"/>
+      <c r="B58" s="29"/>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
       <c r="H58">
         <v>4</v>
       </c>
@@ -1572,10 +1572,10 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="31"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="1">
         <f>SUM(C54:C58)</f>
         <v>200.000001</v>
@@ -1583,11 +1583,11 @@
       <c r="D59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
       <c r="H59" s="1">
         <f>SUM(H54:H58)</f>
         <v>181.000001</v>
@@ -1643,19 +1643,19 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30" t="s">
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -1725,9 +1725,9 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -1764,49 +1764,49 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30" t="s">
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="30"/>
+      <c r="B80" s="29"/>
       <c r="C80">
         <v>5</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
       <c r="H80">
         <v>38</v>
       </c>
@@ -1815,21 +1815,21 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="30"/>
+      <c r="B81" s="29"/>
       <c r="C81">
         <v>5</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="E81" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
       <c r="H81">
         <v>5</v>
       </c>
@@ -1838,21 +1838,21 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="30"/>
+      <c r="B82" s="29"/>
       <c r="C82">
         <v>38</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
       <c r="H82">
         <v>5</v>
       </c>
@@ -1861,21 +1861,21 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="30"/>
+      <c r="B83" s="29"/>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
       <c r="H83">
         <v>2</v>
       </c>
@@ -1884,21 +1884,21 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="30"/>
+      <c r="B84" s="29"/>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
       <c r="H84">
         <v>0</v>
       </c>
@@ -1907,10 +1907,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="31"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="1">
         <f>SUM(C80:C84)</f>
         <v>50</v>
@@ -1918,11 +1918,11 @@
       <c r="D85" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E85" s="31" t="s">
+      <c r="E85" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
       <c r="H85" s="1">
         <f>SUM(H80:H84)</f>
         <v>50</v>
@@ -1932,49 +1932,49 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B88" s="30"/>
+      <c r="B88" s="29"/>
       <c r="C88">
         <v>50</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
       <c r="H88">
         <v>50</v>
       </c>
@@ -1983,10 +1983,10 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B89" s="30"/>
+      <c r="B89" s="29"/>
       <c r="C89">
         <f>C88/8</f>
         <v>6.25</v>
@@ -1994,11 +1994,11 @@
       <c r="D89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
       <c r="H89">
         <f>H88/8</f>
         <v>6.25</v>
@@ -2008,21 +2008,21 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B90" s="30"/>
+      <c r="B90" s="29"/>
       <c r="C90">
         <v>0.5</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
       <c r="H90">
         <v>0.5</v>
       </c>
@@ -2031,36 +2031,36 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
-      <c r="B91" s="30"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
       <c r="D91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
       <c r="I91" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
       <c r="D92" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
       <c r="I92" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="31"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="1">
         <f>SUM(C88:C92)</f>
         <v>56.75</v>
@@ -2068,11 +2068,11 @@
       <c r="D93" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="31" t="s">
+      <c r="E93" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
       <c r="H93" s="1">
         <f>SUM(H88:H92)</f>
         <v>56.75</v>
@@ -2083,74 +2083,74 @@
     </row>
     <row r="95" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
     </row>
     <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="34">
+      <c r="A99" s="33">
         <f ca="1">TODAY()</f>
-        <v>42290</v>
-      </c>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
+        <v>42292</v>
+      </c>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
       <c r="F99" s="20"/>
-      <c r="I99" s="35">
+      <c r="I99" s="34">
         <f ca="1">NOW()</f>
-        <v>42290.68954039352</v>
-      </c>
-      <c r="J99" s="35"/>
+        <v>42292.825834027775</v>
+      </c>
+      <c r="J99" s="34"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B102" s="29"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="16" t="s">
         <v>74</v>
       </c>
       <c r="D102" s="17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
       <c r="H102" s="14"/>
       <c r="I102" s="15"/>
       <c r="J102" s="13"/>
@@ -2174,111 +2174,111 @@
       <c r="J103" s="23"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
       <c r="D104" s="5">
-        <v>4.9000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
       <c r="I104" s="9"/>
       <c r="J104" s="10"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
       <c r="D105" s="5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
       <c r="I105" s="9"/>
       <c r="J105" s="10"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
       <c r="D106" s="5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
       <c r="I106" s="9"/>
       <c r="J106" s="10"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
       <c r="D107" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
       <c r="I107" s="9"/>
       <c r="J107" s="10"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
       <c r="D108" s="5">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
       <c r="I108" s="9"/>
       <c r="J108" s="10"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="27" t="s">
+      <c r="A109" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="35"/>
       <c r="D109" s="7">
         <f>SUM(D104:D108)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
       <c r="I109" s="11"/>
       <c r="J109" s="12"/>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="D111">
         <f>D106*D102/1000</f>
-        <v>0.245</v>
+        <v>0.16</v>
       </c>
       <c r="E111" s="19" t="str">
         <f>"ug"</f>
@@ -2315,18 +2315,18 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="37" t="s">
+      <c r="A114" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B114" s="36"/>
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -2340,6 +2340,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="E87:I87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A101:J101"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="E79:I79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:I11"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="E54:G54"/>
     <mergeCell ref="A114:J114"/>
     <mergeCell ref="A106:C106"/>
     <mergeCell ref="F106:H106"/>
@@ -2364,89 +2447,6 @@
     <mergeCell ref="E85:G85"/>
     <mergeCell ref="A86:I86"/>
     <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A78:I78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="E79:I79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:I11"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E87:I87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="A98:J98"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A101:J101"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="A105:C105"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A114" r:id="rId1"/>
